--- a/model/Inputs/model_inputs_inelas_noFI_noPV.xlsx
+++ b/model/Inputs/model_inputs_inelas_noFI_noPV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0DE4368-59EA-4A00-93A3-97FE0E8225A0}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3466CC3C-1F63-4C70-BEAF-28763DEBEE82}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -517,6 +517,10 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -839,8 +843,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,7 +889,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="B2">
         <v>0.11</v>
@@ -1048,7 +1052,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1125,7 +1129,7 @@
         <v>21.8</v>
       </c>
       <c r="G3">
-        <v>1.38E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1139,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5">
         <v>352</v>
@@ -1148,7 +1152,7 @@
         <v>60.8</v>
       </c>
       <c r="G4" s="5">
-        <v>0.6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1370,8 +1374,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1386,7 +1390,7 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>91</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1394,7 +1398,7 @@
         <v>37</v>
       </c>
       <c r="B3">
-        <v>153</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1402,7 +1406,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>121</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +1420,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1519,49 +1523,49 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4.0201005025125598E-3</v>
       </c>
       <c r="H2">
-        <v>2.5819672131147539E-2</v>
+        <v>4.1170854271356763E-2</v>
       </c>
       <c r="I2">
-        <v>0.16275409836065571</v>
+        <v>0.15498492462311561</v>
       </c>
       <c r="J2">
-        <v>0.37470491803278688</v>
+        <v>0.34120100502512568</v>
       </c>
       <c r="K2">
-        <v>0.5609016393442624</v>
+        <v>0.51137185929648243</v>
       </c>
       <c r="L2">
-        <v>0.69518032786885242</v>
+        <v>0.63440201005025132</v>
       </c>
       <c r="M2">
-        <v>0.77686065573770491</v>
+        <v>0.70589447236180902</v>
       </c>
       <c r="N2">
-        <v>0.81105737704918035</v>
+        <v>0.7173165829145729</v>
       </c>
       <c r="O2">
-        <v>0.7935245901639344</v>
+        <v>0.67734170854271358</v>
       </c>
       <c r="P2">
-        <v>0.72468852459016386</v>
+        <v>0.57809547738693468</v>
       </c>
       <c r="Q2">
-        <v>0.60230327868852451</v>
+        <v>0.43412562814070349</v>
       </c>
       <c r="R2">
-        <v>0.43349180327868853</v>
+        <v>0.25252763819095481</v>
       </c>
       <c r="S2">
-        <v>0.23055737704918031</v>
+        <v>9.1608040201005048E-2</v>
       </c>
       <c r="T2">
-        <v>5.0016393442622951E-2</v>
+        <v>1.7597989949748739E-2</v>
       </c>
       <c r="U2">
-        <v>2.991803278688524E-3</v>
+        <v>3.2160804020100472E-4</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1596,49 +1600,49 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.1509433962264152E-3</v>
       </c>
       <c r="H3">
-        <v>1.335294117647059E-2</v>
+        <v>2.0773584905660381E-2</v>
       </c>
       <c r="I3">
-        <v>0.1510457516339869</v>
+        <v>7.4056603773584917E-2</v>
       </c>
       <c r="J3">
-        <v>0.36648366013071898</v>
+        <v>0.20321698113207551</v>
       </c>
       <c r="K3">
-        <v>0.54676470588235293</v>
+        <v>0.34733018867924531</v>
       </c>
       <c r="L3">
-        <v>0.66818954248366014</v>
+        <v>0.46702830188679251</v>
       </c>
       <c r="M3">
-        <v>0.73162745098039206</v>
+        <v>0.54499999999999993</v>
       </c>
       <c r="N3">
-        <v>0.74206535947712415</v>
+        <v>0.55942452830188683</v>
       </c>
       <c r="O3">
-        <v>0.70073202614379082</v>
+        <v>0.51176415094339622</v>
       </c>
       <c r="P3">
-        <v>0.59535947712418302</v>
+        <v>0.41073584905660382</v>
       </c>
       <c r="Q3">
-        <v>0.43600653594771238</v>
+        <v>0.27456603773584909</v>
       </c>
       <c r="R3">
-        <v>0.24354901960784309</v>
+        <v>0.13354716981132081</v>
       </c>
       <c r="S3">
-        <v>0.11178431372549021</v>
+        <v>3.995283018867922E-2</v>
       </c>
       <c r="T3">
-        <v>1.822875816993464E-2</v>
+        <v>8.6698113207547139E-3</v>
       </c>
       <c r="U3">
-        <v>4.3790849673202621E-4</v>
+        <v>1.4150943396226421E-4</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1673,49 +1677,49 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.3956043956043948E-5</v>
+        <v>1.8032786885245899E-3</v>
       </c>
       <c r="H4">
-        <v>3.9714285714285723E-2</v>
+        <v>1.6032786885245912E-2</v>
       </c>
       <c r="I4">
-        <v>0.1988681318681319</v>
+        <v>5.4229508196721322E-2</v>
       </c>
       <c r="J4">
-        <v>0.3788791208791209</v>
+        <v>0.1274918032786885</v>
       </c>
       <c r="K4">
-        <v>0.52748351648351643</v>
+        <v>0.20950819672131141</v>
       </c>
       <c r="L4">
-        <v>0.62382417582417582</v>
+        <v>0.26809836065573772</v>
       </c>
       <c r="M4">
-        <v>0.66321978021978023</v>
+        <v>0.28267213114754092</v>
       </c>
       <c r="N4">
-        <v>0.6375384615384615</v>
+        <v>0.27595081967213131</v>
       </c>
       <c r="O4">
-        <v>0.55946153846153845</v>
+        <v>0.25488524590163941</v>
       </c>
       <c r="P4">
-        <v>0.43716483516483517</v>
+        <v>0.21809836065573759</v>
       </c>
       <c r="Q4">
-        <v>0.26671428571428568</v>
+        <v>0.151</v>
       </c>
       <c r="R4">
-        <v>8.4153846153846162E-2</v>
+        <v>8.1081967213114725E-2</v>
       </c>
       <c r="S4">
-        <v>4.6263736263736262E-3</v>
+        <v>3.1426229508196707E-2</v>
       </c>
       <c r="T4">
-        <v>2.5274725274725281E-4</v>
+        <v>7.7049180327868824E-3</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>9.8360655737705021E-5</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -2594,23 +2598,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d4e152b-60f6-4719-8921-68b5b8011cde" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D835CF4C7D56B243BA013D4D2E10914B" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e645ef68b9493f2ee8bae9e534bc24f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d4e152b-60f6-4719-8921-68b5b8011cde" xmlns:ns4="28683373-984a-4841-9f0e-018f3f7bab1f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a06da6e71fc3d3bdf7cbe176c2a8afa1" ns3:_="" ns4:_="">
     <xsd:import namespace="6d4e152b-60f6-4719-8921-68b5b8011cde"/>
@@ -2863,32 +2850,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95B8A76-94F3-412F-9855-4B93BB4C4C10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="28683373-984a-4841-9f0e-018f3f7bab1f"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6d4e152b-60f6-4719-8921-68b5b8011cde"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d4e152b-60f6-4719-8921-68b5b8011cde" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE4FBA5-6C26-4B97-9218-92B658F853C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2905,4 +2884,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95B8A76-94F3-412F-9855-4B93BB4C4C10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="28683373-984a-4841-9f0e-018f3f7bab1f"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6d4e152b-60f6-4719-8921-68b5b8011cde"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/model/Inputs/model_inputs_inelas_noFI_noPV.xlsx
+++ b/model/Inputs/model_inputs_inelas_noFI_noPV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3466CC3C-1F63-4C70-BEAF-28763DEBEE82}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51615EC5-7F38-4462-BBD8-918BB0F7846A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,10 +517,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1375,7 +1371,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1406,7 +1402,7 @@
         <v>38</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2851,20 +2847,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d4e152b-60f6-4719-8921-68b5b8011cde" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d4e152b-60f6-4719-8921-68b5b8011cde" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2887,14 +2883,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95B8A76-94F3-412F-9855-4B93BB4C4C10}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2909,4 +2897,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/model/Inputs/model_inputs_inelas_noFI_noPV.xlsx
+++ b/model/Inputs/model_inputs_inelas_noFI_noPV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailaub-my.sharepoint.com/personal/mo10_aub_edu_lb/Documents/3-Research/Elsa/Model 1/Github/Model-1/model/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51615EC5-7F38-4462-BBD8-918BB0F7846A}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="6_{7DA8CDEE-914B-4384-BE83-347F050180D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F716A8CB-B8CC-4A8C-B2EB-14B5C01F929D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>min SoC</t>
   </si>
   <si>
-    <t>Interest rate</t>
-  </si>
-  <si>
     <t>Battery Eff</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>Allow PV</t>
+  </si>
+  <si>
+    <t>DG annual capacity</t>
   </si>
 </sst>
 </file>
@@ -517,6 +517,10 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -839,15 +843,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.90625" customWidth="1"/>
     <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
@@ -859,28 +863,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -888,7 +892,7 @@
         <v>0.02</v>
       </c>
       <c r="B2">
-        <v>0.11</v>
+        <v>0.8</v>
       </c>
       <c r="C2">
         <v>0.99</v>
@@ -1009,15 +1013,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>635</v>
@@ -1028,7 +1032,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1064,27 +1068,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>400</v>
@@ -1107,7 +1111,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1130,7 +1134,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1173,12 +1177,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>0.80323299888517286</v>
@@ -1186,7 +1190,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0.7998018797075267</v>
@@ -1194,7 +1198,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>0.79636610600256064</v>
@@ -1202,7 +1206,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0.79292564496168683</v>
@@ -1210,7 +1214,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>0.78948046335616628</v>
@@ -1218,7 +1222,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>0.78603052752928926</v>
@@ -1226,7 +1230,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>0.78257580338835164</v>
@@ -1234,7 +1238,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>0.77911625639644011</v>
@@ -1242,7 +1246,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>0.77565185156400585</v>
@@ -1250,7 +1254,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>0.77218255344024267</v>
@@ -1258,7 +1262,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>0.76870832610423512</v>
@@ -1266,7 +1270,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>0.76522913315588315</v>
@@ -1274,7 +1278,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>0.76174493770661011</v>
@@ -1282,7 +1286,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>0.75825570236981887</v>
@@ -1290,7 +1294,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>0.75476138925110314</v>
@@ -1321,12 +1325,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <f>(-0.2129*(0.3^3+0^3) +0.6056*(0.3^2+0^2) - 0.5538*(0.3+0) + 0.4067*2)/2</f>
@@ -1338,7 +1342,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <f>(-0.2129*(0.6^3+0.3^3) +0.6056*(0.6^2+0.3^2) - 0.5538*(0.6+0.3) + 0.4067*2)/2</f>
@@ -1350,7 +1354,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <f>(-0.2129*(1^3+0.6^3) +0.6056*(1^2+0.6^2) - 0.5538*(1+0.6) + 0.4067*2)/2</f>
@@ -1370,7 +1374,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1378,12 +1382,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>199</v>
@@ -1391,7 +1395,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>106</v>
@@ -1399,7 +1403,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>60</v>
@@ -1501,7 +1505,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1578,7 +1582,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1655,7 +1659,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1825,7 +1829,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4">
         <v>0.52236078409734032</v>
@@ -1902,7 +1906,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4">
         <v>0.4532206627457997</v>
@@ -1979,7 +1983,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4">
         <v>0.38408054139425912</v>
@@ -2264,7 +2268,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4">
         <v>0.3415913978494623</v>
@@ -2341,7 +2345,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4">
         <v>0.21991235409714491</v>
@@ -2418,7 +2422,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4">
         <v>9.8233310344827587E-2</v>
@@ -2594,6 +2598,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d4e152b-60f6-4719-8921-68b5b8011cde" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D835CF4C7D56B243BA013D4D2E10914B" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2e645ef68b9493f2ee8bae9e534bc24f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d4e152b-60f6-4719-8921-68b5b8011cde" xmlns:ns4="28683373-984a-4841-9f0e-018f3f7bab1f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a06da6e71fc3d3bdf7cbe176c2a8afa1" ns3:_="" ns4:_="">
     <xsd:import namespace="6d4e152b-60f6-4719-8921-68b5b8011cde"/>
@@ -2846,14 +2858,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d4e152b-60f6-4719-8921-68b5b8011cde" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2864,6 +2868,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95B8A76-94F3-412F-9855-4B93BB4C4C10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="28683373-984a-4841-9f0e-018f3f7bab1f"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6d4e152b-60f6-4719-8921-68b5b8011cde"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCE4FBA5-6C26-4B97-9218-92B658F853C9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2882,23 +2903,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E95B8A76-94F3-412F-9855-4B93BB4C4C10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="28683373-984a-4841-9f0e-018f3f7bab1f"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6d4e152b-60f6-4719-8921-68b5b8011cde"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCE34160-36D4-4F46-97A9-A281FB44CDD4}">
   <ds:schemaRefs>
